--- a/docs/fsiap/sprint3/calculos_sprint3_fsiap.xlsx
+++ b/docs/fsiap/sprint3/calculos_sprint3_fsiap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\LAPR3\sem3pi2023_24_g094\docs\fsiap\sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051A108-0CFD-4544-A4DB-96A32FEF26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF816F81-1CB0-407E-97EB-DE90F9DE7E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E859B17B-B0AB-42D8-9E88-116DA005D4D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E859B17B-B0AB-42D8-9E88-116DA005D4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zona A" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>Diferença de temperaturas</t>
   </si>
   <si>
-    <t>Energia (W)</t>
-  </si>
-  <si>
-    <t>Potência (J por h)</t>
-  </si>
-  <si>
     <t>Parede 10</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Janela na Zona</t>
+  </si>
+  <si>
+    <t>Energia (J por h)</t>
+  </si>
+  <si>
+    <t>Potência Térmica (W)</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -504,9 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,9 +516,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,15 +523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,15 +571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,7 +585,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +594,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +629,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,31 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1722,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F2E233-07CE-4760-AE42-15600A8496AE}">
   <dimension ref="D23:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,913 +1739,947 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="42">
+      <c r="E27" s="44">
         <v>4</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.8</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>12.0784</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>F27/(H27*I27)</f>
         <v>4.5995790465256621E-3</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="F28" s="9">
+      <c r="E28" s="45"/>
+      <c r="F28" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>12.0784</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <f>F28/(H28*I28)</f>
         <v>0.16558484567492385</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="44"/>
-      <c r="F29" s="9">
+      <c r="E29" s="46"/>
+      <c r="F29" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
         <v>1.6</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>12.0784</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>2.5872632136706851E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29">
         <f>SUM(J27:J29)</f>
         <v>0.17277168793512021</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="42">
+      <c r="E31" s="44">
         <v>6</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.9</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>20.440000000000001</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>F31/(H31*I31)</f>
         <v>5.4359643400739288E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="43"/>
-      <c r="F32" s="9">
+      <c r="E32" s="45"/>
+      <c r="F32" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.04</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <f>F32/(H32*I32)</f>
         <v>6.1154598825831699E-2</v>
       </c>
     </row>
     <row r="33" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="44"/>
-      <c r="F33" s="9">
+      <c r="E33" s="46"/>
+      <c r="F33" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>6.9890970086664797E-2</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="9">
         <f>SUM(J31:J33)</f>
         <v>0.13648153325257043</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="42">
+      <c r="E35" s="44">
         <v>7</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
         <v>1.8</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>42.56</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>F35/(H35*I35)</f>
         <v>1.3053467000835421E-3</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="43"/>
-      <c r="F36" s="9">
+      <c r="E36" s="45"/>
+      <c r="F36" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>42.56</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <f>F36/(H36*I36)</f>
         <v>4.6992481203007516E-2</v>
       </c>
     </row>
     <row r="37" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44"/>
-      <c r="F37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="6">
         <v>1.6</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>42.56</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>7.3425751879699244E-4</v>
       </c>
     </row>
     <row r="38" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="9">
         <f>SUM(J35:J37)</f>
         <v>4.9032085421888055E-2</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>8</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>0.1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.9</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>13.9</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>F39/(H39*I39)</f>
         <v>7.9936051159072742E-3</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="43"/>
-      <c r="F40" s="9">
+      <c r="E40" s="45"/>
+      <c r="F40" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.04</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>13.9</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <f>F40/(H40*I40)</f>
         <v>8.9928057553956831E-2</v>
       </c>
     </row>
     <row r="41" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="44"/>
-      <c r="F41" s="9">
+      <c r="E41" s="46"/>
+      <c r="F41" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>13.9</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>0.10277492291880781</v>
       </c>
     </row>
     <row r="42" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="9">
         <f>SUM(J39:J41)</f>
         <v>0.20069658558867193</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="42">
+      <c r="E43" s="44">
         <v>9</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <v>0.1</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="3">
         <v>0.9</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>17.12</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <f>F43/(H43*I43)</f>
         <v>6.4901349948078921E-3</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E44" s="43"/>
-      <c r="F44" s="9">
+      <c r="E44" s="45"/>
+      <c r="F44" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="G44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="6">
         <v>0.04</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <v>17.12</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="8">
         <f>F44/(H44*I44)</f>
         <v>7.3014018691588786E-2</v>
       </c>
     </row>
     <row r="45" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="44"/>
-      <c r="F45" s="9">
+      <c r="E45" s="46"/>
+      <c r="F45" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="8">
+      <c r="G45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>17.12</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="8">
         <f t="shared" ref="J45" si="4">F45/(H45*I45)</f>
         <v>8.3444592790387184E-2</v>
       </c>
     </row>
     <row r="46" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="9">
         <f>SUM(J43:J45)</f>
         <v>0.16294874647678387</v>
       </c>
     </row>
     <row r="47" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E47" s="42">
+      <c r="E47" s="44">
         <v>10</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="7">
         <v>0.1</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="3">
         <v>1.8</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>10.4</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <f>F47/(H47*I47)</f>
         <v>5.3418803418803411E-3</v>
       </c>
     </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E48" s="43"/>
-      <c r="F48" s="9">
+      <c r="E48" s="45"/>
+      <c r="F48" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>10.4</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="8">
         <f>F48/(H48*I48)</f>
         <v>0.19230769230769232</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="44"/>
-      <c r="F49" s="9">
+      <c r="E49" s="46"/>
+      <c r="F49" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="8">
+      <c r="G49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="6">
         <v>1.6</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <v>10.4</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="8">
         <f t="shared" ref="J49" si="5">F49/(H49*I49)</f>
         <v>3.0048076923076925E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="9">
         <f>SUM(J47:J49)</f>
         <v>0.20065438034188035</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="48" t="s">
+      <c r="E52" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="48" t="s">
+      <c r="J52" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E53" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <f>F53/(H53*I53)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="37">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="29">
         <f>SUM(J53)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="9">
+      <c r="E55" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="7">
         <f>0.075</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="40">
+      <c r="G55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="32">
         <v>52</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="7">
         <v>14</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="8">
         <f>F55/(H55*I55)</f>
         <v>1.0302197802197802E-4</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="50"/>
-      <c r="F56" s="9">
+      <c r="E56" s="48"/>
+      <c r="F56" s="7">
         <f>0.025</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="38">
+      <c r="G56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="30">
         <v>0.04</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="7">
         <v>14</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="8">
         <f>F56/(H56*I56)</f>
         <v>4.4642857142857144E-2</v>
       </c>
     </row>
     <row r="57" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="37">
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="29">
         <f>SUM(J55:J56)</f>
         <v>4.4745879120879122E-2</v>
       </c>
     </row>
     <row r="58" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="51" t="s">
+      <c r="E59" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="51" t="s">
+      <c r="G59" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="51" t="s">
+      <c r="H59" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="51" t="s">
+      <c r="J59" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="7">
         <f>0.0014</f>
         <v>1.4E-3</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="39">
+      <c r="G60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="31">
         <v>0.8</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="7">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="8">
         <f>F60/(H60*I60)</f>
         <v>2.9914529914529917E-3</v>
       </c>
     </row>
     <row r="61" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="53"/>
-      <c r="F61" s="9">
+      <c r="E61" s="40"/>
+      <c r="F61" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="40">
+      <c r="G61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="32">
         <v>204</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="7">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="8">
         <f>F61/(H61*I61)</f>
         <v>2.5372467827710792E-3</v>
       </c>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="37">
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="29">
         <f>SUM(J60:J61)</f>
         <v>5.5286997742240709E-3</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="54" t="s">
+      <c r="E64" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="7">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="9">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>1.2</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>53.69</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <f>F65/(H65*I65)</f>
-        <v>4.6563605885639788E-3</v>
+        <v>4.6563605885639785E-4</v>
       </c>
     </row>
     <row r="66" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="37">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="29">
         <f>SUM(J65)</f>
-        <v>4.6563605885639788E-3</v>
+        <v>4.6563605885639785E-4</v>
       </c>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="35"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D70" s="35"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="27"/>
+      <c r="E70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="15">
         <v>20</v>
       </c>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D71" s="35"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="17">
         <v>15</v>
       </c>
-      <c r="G71" s="18"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="G71" s="13"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D72" s="35"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="27"/>
+      <c r="E72" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="17">
         <v>-5</v>
       </c>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="27"/>
+      <c r="E73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="17">
         <v>0</v>
       </c>
-      <c r="G73" s="18"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="G73" s="13"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="17">
         <v>7</v>
       </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="20">
         <v>15</v>
       </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
     <row r="78" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="26"/>
-      <c r="F79" s="27" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>18</v>
+      <c r="G79" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E80" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="16">
+      <c r="E80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="11">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G80" s="28"/>
-      <c r="H80" s="7"/>
+      <c r="G80" s="23">
+        <f>F80/(1/((1/J30)+(1/J57)+(1/J62)+(1/J62)))</f>
+        <v>1949.4256001046974</v>
+      </c>
+      <c r="H80" s="50"/>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E81" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="16">
+      <c r="E81" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="11">
         <f>F74-F71</f>
         <v>-8</v>
       </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="7"/>
+      <c r="G81" s="23">
+        <f>F81/(1/(1/J54)+(1/J54)+(1/J34))</f>
+        <v>-0.6041741817807097</v>
+      </c>
+      <c r="H81" s="50"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E82" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="16">
+      <c r="E82" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="11">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G82" s="28"/>
-      <c r="H82" s="7"/>
+      <c r="G82" s="23">
+        <f>F82/J38</f>
+        <v>101.97404326123127</v>
+      </c>
+      <c r="H82" s="50"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E83" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="16">
+      <c r="E83" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="11">
         <f>F73-F71</f>
         <v>-15</v>
       </c>
-      <c r="G83" s="28"/>
-      <c r="H83" s="7"/>
+      <c r="G83" s="23">
+        <f>F83/(1/(1/J42)+(1/J54))</f>
+        <v>-2.5249564228524948</v>
+      </c>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E84" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="16">
+      <c r="E84" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="11">
         <f>F73-F74</f>
         <v>-7</v>
       </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="7"/>
+      <c r="G84" s="23">
+        <f>F84/J46</f>
+        <v>-42.958293029871975</v>
+      </c>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E85" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="16">
+      <c r="E85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="11">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G85" s="28"/>
-      <c r="H85" s="7"/>
+      <c r="G85" s="23">
+        <f>F85/J50</f>
+        <v>24.918469217970049</v>
+      </c>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="24">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G86" s="28"/>
-      <c r="H86" s="30"/>
+      <c r="G86" s="23">
+        <f>F86/J66</f>
+        <v>10738</v>
+      </c>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="32"/>
-      <c r="G87" s="33">
+      <c r="E87" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="53"/>
+      <c r="G87" s="25">
         <f>SUM(G80:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="34">
+        <v>12768.230688949394</v>
+      </c>
+      <c r="H87" s="26">
         <f>G87*3600</f>
-        <v>0</v>
+        <v>45965630.480217814</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="H79:H86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="E62:I62"/>
     <mergeCell ref="E66:I66"/>
@@ -2654,19 +2688,6 @@
     <mergeCell ref="E54:I54"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="E57:I57"/>
-    <mergeCell ref="H79:H86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2681,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852EC61A-E307-4342-94C4-0AFF545AB8D5}">
   <dimension ref="D23:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,621 +2719,642 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="42">
+      <c r="E27" s="44">
         <v>3</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.8</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>22</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>F27/(H27*I27)</f>
         <v>2.5252525252525255E-3</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="F28" s="9">
+      <c r="E28" s="45"/>
+      <c r="F28" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>22</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <f>F28/(H28*I28)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="44"/>
-      <c r="F29" s="9">
+      <c r="E29" s="46"/>
+      <c r="F29" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I29" s="7">
         <v>22</v>
       </c>
-      <c r="H29" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="I29" s="9">
-        <v>22</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.4204545454545455E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29">
         <f>SUM(J27:J29)</f>
         <v>9.4854797979797983E-2</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="42">
+      <c r="E31" s="44">
         <v>5</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.9</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>14.52</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>F31/(H31*I31)</f>
         <v>7.6522803795531077E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="43"/>
-      <c r="F32" s="9">
+      <c r="E32" s="45"/>
+      <c r="F32" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.04</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>14.52</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <f>F32/(H32*I32)</f>
         <v>8.6088154269972461E-2</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="44"/>
-      <c r="F33" s="9">
+      <c r="E33" s="46"/>
+      <c r="F33" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>14.52</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>9.8386462022825666E-2</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="9">
         <f>SUM(J31:J33)</f>
         <v>0.19212689667235122</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="42">
+      <c r="E35" s="44">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.9</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>19.5</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>F35/(H35*I35)</f>
         <v>5.6980056980056983E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="43"/>
-      <c r="F36" s="9">
+      <c r="E36" s="45"/>
+      <c r="F36" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="6">
         <v>0.04</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>19.5</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <f>F36/(H36*I36)</f>
         <v>6.4102564102564111E-2</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44"/>
-      <c r="F37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>19.5</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>7.326007326007325E-2</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="9">
         <f>SUM(J35:J37)</f>
         <v>0.14306064306064306</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>10</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>0.1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
         <v>1.8</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>14.52</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>F39/(H39*I39)</f>
         <v>3.8261401897765539E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="43"/>
-      <c r="F40" s="9">
+      <c r="E40" s="45"/>
+      <c r="F40" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>14.52</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <f>F40/(H40*I40)</f>
         <v>0.13774104683195593</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="44"/>
-      <c r="F41" s="9">
+      <c r="E41" s="46"/>
+      <c r="F41" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="6">
         <v>1.6</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>14.52</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>2.1522038567493114E-3</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="9">
         <f>SUM(J39:J41)</f>
         <v>0.14371939087848179</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="37">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="29">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="7">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="9">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>1.2</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>19.98</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f>F49/(H49*I49)</f>
-        <v>1.2512512512512513E-2</v>
+        <v>1.2512512512512512E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="37">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="29">
         <f>SUM(J49)</f>
-        <v>1.2512512512512513E-2</v>
+        <v>1.2512512512512512E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="17"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="20">
         <v>15</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="26"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>18</v>
+      <c r="G63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="16">
+      <c r="E64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="11">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="23">
+        <f>F64/J30</f>
+        <v>263.56073211314475</v>
+      </c>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="16">
+      <c r="E65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="11">
         <f>F59-F57</f>
         <v>12</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="23">
+        <f>F65/J34</f>
+        <v>62.458719772403981</v>
+      </c>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="16">
+      <c r="E66" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="11">
         <f>F58-F57</f>
         <v>5</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="7"/>
+      <c r="G66" s="23">
+        <f>F66/(1/(1/J38)+(1/J46))</f>
+        <v>0.84989774937943985</v>
+      </c>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="16">
+      <c r="E67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="11">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="7"/>
+      <c r="G67" s="23">
+        <f>F67/J42</f>
+        <v>173.95008319467553</v>
+      </c>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="11">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="7"/>
+      <c r="G68" s="23">
+        <f>F68/J50</f>
+        <v>19980</v>
+      </c>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="35"/>
-      <c r="E69" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33">
-        <f ca="1">SUM(G64:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="34">
-        <f ca="1">G69*3600</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="25">
+        <f>SUM(G64:G68)</f>
+        <v>20480.819432829605</v>
+      </c>
+      <c r="H69" s="26">
+        <f>G69*3600</f>
+        <v>73730949.958186582</v>
+      </c>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="D73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:I34"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="H63:H68"/>
@@ -3320,12 +3362,6 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3337,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE5444-C78B-42AF-BB4D-FBB961764521}">
   <dimension ref="D23:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,621 +3390,642 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="42">
+      <c r="E27" s="44">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.9</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>16.36</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>F27/(H27*I27)</f>
         <v>6.7916327085031248E-3</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="F28" s="9">
+      <c r="E28" s="45"/>
+      <c r="F28" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="6">
         <v>0.04</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>16.36</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <f>F28/(H28*I28)</f>
         <v>7.6405867970660152E-2</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="44"/>
-      <c r="F29" s="9">
+      <c r="E29" s="46"/>
+      <c r="F29" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>16.36</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>8.7320991966468739E-2</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29">
         <f>SUM(J27:J29)</f>
         <v>0.17051849264563201</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="42">
+      <c r="E31" s="44">
         <v>8</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.9</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>13.14</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>F31/(H31*I31)</f>
         <v>8.4559445290038893E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="43"/>
-      <c r="F32" s="9">
+      <c r="E32" s="45"/>
+      <c r="F32" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.04</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>13.14</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <f>F32/(H32*I32)</f>
         <v>9.5129375951293754E-2</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="44"/>
-      <c r="F33" s="9">
+      <c r="E33" s="46"/>
+      <c r="F33" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>13.14</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>0.10871928680147856</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="9">
         <f>SUM(J31:J33)</f>
         <v>0.21230460728177619</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="42">
+      <c r="E35" s="44">
         <v>9</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.9</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>16.36</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>F35/(H35*I35)</f>
         <v>6.7916327085031248E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="43"/>
-      <c r="F36" s="9">
+      <c r="E36" s="45"/>
+      <c r="F36" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="6">
         <v>0.04</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>16.36</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <f>F36/(H36*I36)</f>
         <v>7.6405867970660152E-2</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44"/>
-      <c r="F37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>16.36</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>8.7320991966468739E-2</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="9">
         <f>SUM(J35:J37)</f>
         <v>0.17051849264563201</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>10</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>0.1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
         <v>1.8</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>15.64</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>F39/(H39*I39)</f>
         <v>3.5521454958795111E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="43"/>
-      <c r="F40" s="9">
+      <c r="E40" s="45"/>
+      <c r="F40" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>15.64</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <f>F40/(H40*I40)</f>
         <v>0.12787723785166241</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="44"/>
-      <c r="F41" s="9">
+      <c r="E41" s="46"/>
+      <c r="F41" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="6">
         <v>1.6</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>15.64</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>1.9980818414322252E-3</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="9">
         <f>SUM(J39:J41)</f>
         <v>0.13342746518897414</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="37">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="29">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="7">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="9">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>1.2</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>15.99</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f>F49/(H49*I49)</f>
-        <v>1.5634771732332707E-2</v>
+        <v>1.5634771732332708E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="37">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="29">
         <f>SUM(J49)</f>
-        <v>1.5634771732332707E-2</v>
+        <v>1.5634771732332708E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="17"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="20">
         <v>15</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="26"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>18</v>
+      <c r="G63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" s="16">
+      <c r="E64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="11">
         <f>F57-F58</f>
         <v>-5</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="23">
+        <f>F64/J30</f>
+        <v>-29.322332859174963</v>
+      </c>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="16">
+      <c r="E65" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="11">
         <f>F56-F58</f>
         <v>15</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="23">
+        <f>F65/(1/(1/J34)+(1/J46))</f>
+        <v>2.520032321875747</v>
+      </c>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="16">
+      <c r="E66" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="11">
         <f>F56-F58</f>
         <v>15</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="7"/>
+      <c r="G66" s="23">
+        <f>F66/J38</f>
+        <v>87.96699857752489</v>
+      </c>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="16">
+      <c r="E67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="11">
         <f>F55-F58</f>
         <v>20</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="7"/>
+      <c r="G67" s="23">
+        <f>F67/J42</f>
+        <v>149.89417637271214</v>
+      </c>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="11">
         <f>F55-F58</f>
         <v>20</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="7"/>
+      <c r="G68" s="23">
+        <f>F68/J50</f>
+        <v>12792</v>
+      </c>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="35"/>
-      <c r="E69" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33">
-        <f ca="1">SUM(G64:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="34">
-        <f ca="1">G69*3600</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="25">
+        <f>SUM(G64:G68)</f>
+        <v>13003.058874412938</v>
+      </c>
+      <c r="H69" s="26">
+        <f>G69*3600</f>
+        <v>46811011.947886579</v>
+      </c>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="D73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:I34"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:E41"/>
@@ -3976,12 +4033,6 @@
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="H63:H68"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3993,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183C6EC0-3FAB-4363-B7CF-B7846D8C8F68}">
   <dimension ref="D23:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,621 +4061,642 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="42">
+      <c r="E27" s="44">
         <v>3</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.8</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>19.8</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>F27/(H27*I27)</f>
         <v>2.8058361391694727E-3</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="F28" s="9">
+      <c r="E28" s="45"/>
+      <c r="F28" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>19.8</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <f>F28/(H28*I28)</f>
         <v>0.10101010101010101</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="44"/>
-      <c r="F29" s="9">
+      <c r="E29" s="46"/>
+      <c r="F29" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
         <v>1.6</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>19.8</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.5782828282828283E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29">
         <f>SUM(J27:J29)</f>
         <v>0.10539421997755331</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="42">
+      <c r="E31" s="44">
         <v>4</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.9</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>11.96</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>F31/(H31*I31)</f>
         <v>9.2902266815310282E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="43"/>
-      <c r="F32" s="9">
+      <c r="E32" s="45"/>
+      <c r="F32" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.04</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>11.96</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <f>F32/(H32*I32)</f>
         <v>0.10451505016722408</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="44"/>
-      <c r="F33" s="9">
+      <c r="E33" s="46"/>
+      <c r="F33" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>11.96</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>0.11944577161968464</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="9">
         <f>SUM(J31:J33)</f>
         <v>0.23325104846843975</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="42">
+      <c r="E35" s="44">
         <v>5</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.9</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>11.96</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>F35/(H35*I35)</f>
         <v>9.2902266815310282E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="43"/>
-      <c r="F36" s="9">
+      <c r="E36" s="45"/>
+      <c r="F36" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="6">
         <v>0.04</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>11.96</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <f>F36/(H36*I36)</f>
         <v>0.10451505016722408</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44"/>
-      <c r="F37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>11.96</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>0.11944577161968464</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="9">
         <f>SUM(J35:J37)</f>
         <v>0.23325104846843975</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>6</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>0.1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.9</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>17.3</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>F39/(H39*I39)</f>
         <v>6.4226075786769435E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="43"/>
-      <c r="F40" s="9">
+      <c r="E40" s="45"/>
+      <c r="F40" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.04</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>17.3</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <f>F40/(H40*I40)</f>
         <v>7.2254335260115599E-2</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="44"/>
-      <c r="F41" s="9">
+      <c r="E41" s="46"/>
+      <c r="F41" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>17.3</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>8.2576383154417829E-2</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="9">
         <f>SUM(J39:J41)</f>
         <v>0.16125332599321035</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="37">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="29">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="7">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="9">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>1.2</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>17.96</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f>F49/(H49*I49)</f>
-        <v>1.3919821826280623E-2</v>
+        <v>1.3919821826280624E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="37">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="29">
         <f>SUM(J49)</f>
-        <v>1.3919821826280623E-2</v>
+        <v>1.3919821826280624E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="17"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="20">
         <v>15</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="26"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>18</v>
+      <c r="G63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="16">
+      <c r="E64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="11">
         <f>F55-F59</f>
         <v>13</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="23">
+        <f>F64/J30</f>
+        <v>123.34642262895174</v>
+      </c>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="16">
+      <c r="E65" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="11">
         <f>F60-F59</f>
         <v>8</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="23">
+        <f>F65/J34</f>
+        <v>34.297809388335708</v>
+      </c>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="16">
+      <c r="E66" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="11">
         <f>F57-F59</f>
         <v>-12</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="7"/>
+      <c r="G66" s="23">
+        <f>F66/J38</f>
+        <v>-51.446714082503561</v>
+      </c>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="16">
+      <c r="E67" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="11">
         <f>F56-F59</f>
         <v>8</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="7"/>
+      <c r="G67" s="23">
+        <f>F67/(1/(1/J42)+(1/J46))</f>
+        <v>1.3556442264158455</v>
+      </c>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="11">
         <f>F55-F59</f>
         <v>13</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="7"/>
+      <c r="G68" s="23">
+        <f>F68/J50</f>
+        <v>9339.2000000000007</v>
+      </c>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="35"/>
-      <c r="E69" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33">
-        <f ca="1">SUM(G64:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="34">
-        <f ca="1">G69*3600</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="25">
+        <f>SUM(G64:G68)</f>
+        <v>9446.7531621611997</v>
+      </c>
+      <c r="H69" s="26">
+        <f>G69*3600</f>
+        <v>34008311.383780316</v>
+      </c>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="D73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:I34"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:E41"/>
@@ -4632,12 +4704,6 @@
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="H63:H68"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4649,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD473A9F-BFDF-4FDA-850D-4AC6C32BA31D}">
   <dimension ref="D23:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,717 +4732,732 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="42">
+      <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
         <v>1.8</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>19.05</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>F27/(H27*I27)</f>
         <v>2.9163021289005542E-3</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="F28" s="9">
+      <c r="E28" s="45"/>
+      <c r="F28" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>19.05</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <f>F28/(H28*I28)</f>
         <v>0.10498687664041995</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="44"/>
-      <c r="F29" s="9">
+      <c r="E29" s="46"/>
+      <c r="F29" s="7">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
         <v>1.6</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>19.05</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.6404199475065617E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29">
         <f>SUM(J27:J29)</f>
         <v>0.10954359871682706</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="42">
+      <c r="E31" s="44">
         <v>2</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>0.1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3">
         <v>1.8</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>6.55</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>F31/(H31*I31)</f>
         <v>8.4817642069550479E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="43"/>
-      <c r="F32" s="9">
+      <c r="E32" s="45"/>
+      <c r="F32" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>6.55</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <f>F32/(H32*I32)</f>
         <v>0.30534351145038169</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="44"/>
-      <c r="F33" s="9">
+      <c r="E33" s="46"/>
+      <c r="F33" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="6">
         <v>1.6</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>6.55</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>4.7709923664122139E-3</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="9">
         <f>SUM(J31:J33)</f>
         <v>0.31859626802374896</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="42">
+      <c r="E35" s="44">
         <v>3</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>0.1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
         <v>1.8</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>17.840399999999999</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>F35/(H35*I35)</f>
         <v>3.1140308264139575E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="43"/>
-      <c r="F36" s="9">
+      <c r="E36" s="45"/>
+      <c r="F36" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>17.840399999999999</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <f>F36/(H36*I36)</f>
         <v>0.11210510975090245</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44"/>
-      <c r="F37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="6">
         <v>1.6</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>17.840399999999999</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>1.7516423398578507E-3</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="9">
         <f>SUM(J35:J37)</f>
         <v>0.11697078291717425</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>4</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>0.1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.9</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>14.05</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>F39/(H39*I39)</f>
         <v>7.9082641360221431E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="43"/>
-      <c r="F40" s="9">
+      <c r="E40" s="45"/>
+      <c r="F40" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.04</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>14.05</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <f>F40/(H40*I40)</f>
         <v>8.8967971530249101E-2</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="44"/>
-      <c r="F41" s="9">
+      <c r="E41" s="46"/>
+      <c r="F41" s="7">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>14.05</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>0.10167768174885612</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="9">
         <f>SUM(J39:J41)</f>
         <v>0.19855391741512735</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7">
         <f>0.075</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="40">
+      <c r="G45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="32">
         <v>52</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>7.5</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="8">
         <f>F45/(H45*I45)</f>
         <v>1.9230769230769231E-4</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="50"/>
-      <c r="F46" s="9">
+      <c r="E46" s="48"/>
+      <c r="F46" s="7">
         <f>0.025</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="38">
+      <c r="G46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="30">
         <v>0.04</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <v>7.5</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="8">
         <f>F46/(H46*I46)</f>
         <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="37">
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="29">
         <f>SUM(J45:J46)</f>
         <v>8.3525641025641029E-2</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="51" t="s">
+      <c r="E49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="51" t="s">
+      <c r="H49" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="51" t="s">
+      <c r="J49" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="7">
         <f>0.0014</f>
         <v>1.4E-3</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="39">
+      <c r="G50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="31">
         <v>0.8</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <v>1.08</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="8">
         <f>F50/(H50*I50)</f>
         <v>1.6203703703703701E-3</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="53"/>
-      <c r="F51" s="9">
+      <c r="E51" s="40"/>
+      <c r="F51" s="7">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="40">
+      <c r="G51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="32">
         <v>204</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <v>0.12959999999999999</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="8">
         <f>F51/(H51*I51)</f>
         <v>1.8911885741951103E-3</v>
       </c>
     </row>
     <row r="52" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="37">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="29">
         <f>SUM(J50:J51)</f>
         <v>3.5115589445654802E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="7">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="9">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>1.2</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="4">
         <v>42.84</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <f>F55/(H55*I55)</f>
-        <v>5.8356676003734819E-3</v>
+        <v>5.8356676003734826E-4</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="37">
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="29">
         <f>SUM(J55)</f>
-        <v>5.8356676003734819E-3</v>
+        <v>5.8356676003734826E-4</v>
       </c>
     </row>
     <row r="59" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="17"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="20">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="35"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="G69" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E70" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="16">
+      <c r="E70" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="11">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G70" s="28"/>
-      <c r="H70" s="7"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="G70" s="23">
+        <f>F70/J30</f>
+        <v>45.643926788685526</v>
+      </c>
+      <c r="H70" s="50"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E71" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="16">
+      <c r="E71" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="11">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="7"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="G71" s="23">
+        <f>F71/(1/(1/J34)+(1/J47))</f>
+        <v>0.40680279327924329</v>
+      </c>
+      <c r="H71" s="50"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="16">
+      <c r="E72" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="11">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="7"/>
-      <c r="K72" s="35"/>
+      <c r="G72" s="23">
+        <f>F72/(1/(1/J38)+(1/J52))</f>
+        <v>1.755058582322808E-2</v>
+      </c>
+      <c r="H72" s="50"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="35"/>
-      <c r="E73" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="16">
+      <c r="D73" s="27"/>
+      <c r="E73" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="11">
         <f>F65-F66</f>
         <v>-8</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="7"/>
-      <c r="K73" s="35"/>
+      <c r="G73" s="23">
+        <f>F73/J42</f>
+        <v>-40.291322901849227</v>
+      </c>
+      <c r="H73" s="50"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="11">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="7"/>
-      <c r="K74" s="35"/>
+      <c r="G74" s="23">
+        <f>F74/J56</f>
+        <v>8568</v>
+      </c>
+      <c r="H74" s="50"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="32"/>
-      <c r="G75" s="33">
-        <f>SUM(G64:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="34">
+      <c r="E75" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="25">
+        <f>SUM(G70:G74)</f>
+        <v>8573.7769572659381</v>
+      </c>
+      <c r="H75" s="26">
         <f>G75*3600</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
+        <v>30865597.046157379</v>
+      </c>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="H69:H74"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/fsiap/sprint3/calculos_sprint3_fsiap.xlsx
+++ b/docs/fsiap/sprint3/calculos_sprint3_fsiap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF816F81-1CB0-407E-97EB-DE90F9DE7E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE4ED05-8810-473A-A868-22EADD8A81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E859B17B-B0AB-42D8-9E88-116DA005D4D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E859B17B-B0AB-42D8-9E88-116DA005D4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zona A" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Zona C" sheetId="11" r:id="rId3"/>
     <sheet name="Zona D" sheetId="12" r:id="rId4"/>
     <sheet name="Zona E" sheetId="13" r:id="rId5"/>
+    <sheet name="USFA07" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="67">
   <si>
     <t>Zona B</t>
   </si>
@@ -220,6 +221,27 @@
   </si>
   <si>
     <t>Potência Térmica (W)</t>
+  </si>
+  <si>
+    <t>Zonas</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Potência térmica (W)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +281,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +338,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -495,15 +548,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,9 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,22 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,21 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,6 +689,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F2E233-07CE-4760-AE42-15600A8496AE}">
   <dimension ref="D23:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,928 +1843,927 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="44">
+      <c r="E27" s="38">
         <v>4</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>1.8</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>12.0784</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>F27/(H27*I27)</f>
         <v>4.5995790465256621E-3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
-      <c r="F28" s="7">
+      <c r="E28" s="39"/>
+      <c r="F28" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>12.0784</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>F28/(H28*I28)</f>
         <v>0.16558484567492385</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="46"/>
-      <c r="F29" s="7">
+      <c r="E29" s="40"/>
+      <c r="F29" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1.6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>12.0784</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>2.5872632136706851E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="23">
         <f>SUM(J27:J29)</f>
         <v>0.17277168793512021</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="44">
+      <c r="E31" s="38">
         <v>6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.9</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>20.440000000000001</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>F31/(H31*I31)</f>
         <v>5.4359643400739288E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="F32" s="7">
+      <c r="E32" s="39"/>
+      <c r="F32" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.04</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>20.440000000000001</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f>F32/(H32*I32)</f>
         <v>6.1154598825831699E-2</v>
       </c>
     </row>
     <row r="33" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="46"/>
-      <c r="F33" s="7">
+      <c r="E33" s="40"/>
+      <c r="F33" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>20.440000000000001</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>6.9890970086664797E-2</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="9">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="8">
         <f>SUM(J31:J33)</f>
         <v>0.13648153325257043</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>7</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>1.8</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>42.56</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>F35/(H35*I35)</f>
         <v>1.3053467000835421E-3</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="F36" s="7">
+      <c r="E36" s="39"/>
+      <c r="F36" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>42.56</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f>F36/(H36*I36)</f>
         <v>4.6992481203007516E-2</v>
       </c>
     </row>
     <row r="37" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="46"/>
-      <c r="F37" s="7">
+      <c r="E37" s="40"/>
+      <c r="F37" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>1.6</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>42.56</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>7.3425751879699244E-4</v>
       </c>
     </row>
     <row r="38" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="9">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="8">
         <f>SUM(J35:J37)</f>
         <v>4.9032085421888055E-2</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="44">
+      <c r="E39" s="38">
         <v>8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>0.9</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>13.9</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>F39/(H39*I39)</f>
         <v>7.9936051159072742E-3</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="45"/>
-      <c r="F40" s="7">
+      <c r="E40" s="39"/>
+      <c r="F40" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>0.04</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>13.9</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f>F40/(H40*I40)</f>
         <v>8.9928057553956831E-2</v>
       </c>
     </row>
     <row r="41" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="46"/>
-      <c r="F41" s="7">
+      <c r="E41" s="40"/>
+      <c r="F41" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>13.9</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>0.10277492291880781</v>
       </c>
     </row>
     <row r="42" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="9">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="8">
         <f>SUM(J39:J41)</f>
         <v>0.20069658558867193</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="44">
+      <c r="E43" s="38">
         <v>9</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>0.1</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>0.9</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>17.12</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <f>F43/(H43*I43)</f>
         <v>6.4901349948078921E-3</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E44" s="45"/>
-      <c r="F44" s="7">
+      <c r="E44" s="39"/>
+      <c r="F44" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>0.04</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>17.12</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <f>F44/(H44*I44)</f>
         <v>7.3014018691588786E-2</v>
       </c>
     </row>
     <row r="45" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="46"/>
-      <c r="F45" s="7">
+      <c r="E45" s="40"/>
+      <c r="F45" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>17.12</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <f t="shared" ref="J45" si="4">F45/(H45*I45)</f>
         <v>8.3444592790387184E-2</v>
       </c>
     </row>
     <row r="46" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="9">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="8">
         <f>SUM(J43:J45)</f>
         <v>0.16294874647678387</v>
       </c>
     </row>
     <row r="47" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E47" s="44">
+      <c r="E47" s="38">
         <v>10</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>0.1</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>1.8</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>10.4</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <f>F47/(H47*I47)</f>
         <v>5.3418803418803411E-3</v>
       </c>
     </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E48" s="45"/>
-      <c r="F48" s="7">
+      <c r="E48" s="39"/>
+      <c r="F48" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>10.4</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="7">
         <f>F48/(H48*I48)</f>
         <v>0.19230769230769232</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="46"/>
-      <c r="F49" s="7">
+      <c r="E49" s="40"/>
+      <c r="F49" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>1.6</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>10.4</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="7">
         <f t="shared" ref="J49" si="5">F49/(H49*I49)</f>
         <v>3.0048076923076925E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="9">
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="8">
         <f>SUM(J47:J49)</f>
         <v>0.20065438034188035</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="H52" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="J52" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <f>F53/(H53*I53)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="29">
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="23">
         <f>SUM(J53)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f>0.075</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="26">
         <v>52</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>14</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <f>F55/(H55*I55)</f>
         <v>1.0302197802197802E-4</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="48"/>
-      <c r="F56" s="7">
+      <c r="E56" s="42"/>
+      <c r="F56" s="6">
         <f>0.025</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="24">
         <v>0.04</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>14</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <f>F56/(H56*I56)</f>
         <v>4.4642857142857144E-2</v>
       </c>
     </row>
     <row r="57" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="29">
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="23">
         <f>SUM(J55:J56)</f>
         <v>4.4745879120879122E-2</v>
       </c>
     </row>
     <row r="58" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="G59" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="35" t="s">
+      <c r="H59" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="J59" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f>0.0014</f>
         <v>1.4E-3</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="25">
         <v>0.8</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="7">
         <f>F60/(H60*I60)</f>
         <v>2.9914529914529917E-3</v>
       </c>
     </row>
     <row r="61" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="40"/>
-      <c r="F61" s="7">
+      <c r="E61" s="34"/>
+      <c r="F61" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="26">
         <v>204</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="7">
         <f>F61/(H61*I61)</f>
         <v>2.5372467827710792E-3</v>
       </c>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="29">
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="23">
         <f>SUM(J60:J61)</f>
         <v>5.5286997742240709E-3</v>
       </c>
     </row>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J64" s="36" t="s">
+      <c r="J64" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>1.2</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>53.69</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <f>F65/(H65*I65)</f>
         <v>4.6563605885639785E-4</v>
       </c>
     </row>
     <row r="66" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="29">
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="23">
         <f>SUM(J65)</f>
         <v>4.6563605885639785E-4</v>
       </c>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="1" t="s">
+      <c r="D69" s="21"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D70" s="27"/>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="13">
         <v>20</v>
       </c>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D71" s="27"/>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="15">
         <v>15</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="27"/>
+      <c r="G71" s="11"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D72" s="27"/>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="21"/>
+      <c r="E72" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="15">
         <v>-5</v>
       </c>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="27"/>
-      <c r="E73" s="16" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="15">
         <v>0</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="G73" s="11"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="15">
         <v>7</v>
       </c>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="18">
         <v>15</v>
       </c>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
     <row r="78" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="21"/>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H79" s="49" t="s">
+      <c r="H79" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="9">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="19">
         <f>F80/(1/((1/J30)+(1/J57)+(1/J62)+(1/J62)))</f>
         <v>1949.4256001046974</v>
       </c>
-      <c r="H80" s="50"/>
+      <c r="H80" s="61"/>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="9">
         <f>F74-F71</f>
         <v>-8</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="19">
         <f>F81/(1/(1/J54)+(1/J54)+(1/J34))</f>
         <v>-0.6041741817807097</v>
       </c>
-      <c r="H81" s="50"/>
+      <c r="H81" s="61"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="9">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G82" s="23">
+      <c r="G82" s="19">
         <f>F82/J38</f>
         <v>101.97404326123127</v>
       </c>
-      <c r="H82" s="50"/>
+      <c r="H82" s="61"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="9">
         <f>F73-F71</f>
         <v>-15</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="19">
         <f>F83/(1/(1/J42)+(1/J54))</f>
         <v>-2.5249564228524948</v>
       </c>
-      <c r="H83" s="50"/>
+      <c r="H83" s="61"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="9">
         <f>F73-F74</f>
         <v>-7</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="19">
         <f>F84/J46</f>
         <v>-42.958293029871975</v>
       </c>
-      <c r="H84" s="50"/>
+      <c r="H84" s="61"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="9">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="19">
         <f>F85/J50</f>
         <v>24.918469217970049</v>
       </c>
-      <c r="H85" s="50"/>
+      <c r="H85" s="61"/>
     </row>
     <row r="86" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="20">
         <f>F70-F71</f>
         <v>5</v>
       </c>
-      <c r="G86" s="23">
+      <c r="G86" s="19">
         <f>F86/J66</f>
         <v>10738</v>
       </c>
-      <c r="H86" s="51"/>
-    </row>
-    <row r="87" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="52" t="s">
+      <c r="H86" s="62"/>
+    </row>
+    <row r="87" spans="5:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="53"/>
-      <c r="G87" s="25">
+      <c r="F87" s="64"/>
+      <c r="G87" s="67">
         <f>SUM(G80:G86)</f>
         <v>12768.230688949394</v>
       </c>
-      <c r="H87" s="26">
+      <c r="H87" s="68">
         <f>G87*3600</f>
         <v>45965630.480217814</v>
       </c>
@@ -2703,7 +2806,7 @@
   <dimension ref="D23:K76"/>
   <sheetViews>
     <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,633 +2822,632 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="44">
+      <c r="E27" s="38">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>1.8</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>22</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>F27/(H27*I27)</f>
         <v>2.5252525252525255E-3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
-      <c r="F28" s="7">
+      <c r="E28" s="39"/>
+      <c r="F28" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>22</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>F28/(H28*I28)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="46"/>
-      <c r="F29" s="7">
+      <c r="E29" s="40"/>
+      <c r="F29" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1.6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>22</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.4204545454545455E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="23">
         <f>SUM(J27:J29)</f>
         <v>9.4854797979797983E-2</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="44">
+      <c r="E31" s="38">
         <v>5</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.9</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>14.52</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>F31/(H31*I31)</f>
         <v>7.6522803795531077E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="F32" s="7">
+      <c r="E32" s="39"/>
+      <c r="F32" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.04</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>14.52</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f>F32/(H32*I32)</f>
         <v>8.6088154269972461E-2</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="46"/>
-      <c r="F33" s="7">
+      <c r="E33" s="40"/>
+      <c r="F33" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>14.52</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>9.8386462022825666E-2</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="9">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="8">
         <f>SUM(J31:J33)</f>
         <v>0.19212689667235122</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>6</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>0.9</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>19.5</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>F35/(H35*I35)</f>
         <v>5.6980056980056983E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="F36" s="7">
+      <c r="E36" s="39"/>
+      <c r="F36" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>0.04</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>19.5</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f>F36/(H36*I36)</f>
         <v>6.4102564102564111E-2</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="46"/>
-      <c r="F37" s="7">
+      <c r="E37" s="40"/>
+      <c r="F37" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>19.5</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>7.326007326007325E-2</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="9">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="8">
         <f>SUM(J35:J37)</f>
         <v>0.14306064306064306</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="44">
+      <c r="E39" s="38">
         <v>10</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>1.8</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>14.52</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>F39/(H39*I39)</f>
         <v>3.8261401897765539E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="45"/>
-      <c r="F40" s="7">
+      <c r="E40" s="39"/>
+      <c r="F40" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>14.52</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f>F40/(H40*I40)</f>
         <v>0.13774104683195593</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="46"/>
-      <c r="F41" s="7">
+      <c r="E41" s="40"/>
+      <c r="F41" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>1.6</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>14.52</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>2.1522038567493114E-3</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="9">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="8">
         <f>SUM(J39:J41)</f>
         <v>0.14371939087848179</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="29">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="23">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>1.2</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>19.98</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <f>F49/(H49*I49)</f>
         <v>1.2512512512512512E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="29">
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="23">
         <f>SUM(J49)</f>
         <v>1.2512512512512512E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="12"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>15</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="21"/>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="9">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="19">
         <f>F64/J30</f>
         <v>263.56073211314475</v>
       </c>
-      <c r="H64" s="50"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="9">
         <f>F59-F57</f>
         <v>12</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="19">
         <f>F65/J34</f>
         <v>62.458719772403981</v>
       </c>
-      <c r="H65" s="50"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <f>F58-F57</f>
         <v>5</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="19">
         <f>F66/(1/(1/J38)+(1/J46))</f>
         <v>0.84989774937943985</v>
       </c>
-      <c r="H66" s="50"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="9">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="19">
         <f>F67/J42</f>
         <v>173.95008319467553</v>
       </c>
-      <c r="H67" s="50"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="9">
         <f>F55-F57</f>
         <v>25</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="19">
         <f>F68/J50</f>
         <v>19980</v>
       </c>
-      <c r="H68" s="50"/>
-    </row>
-    <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="52" t="s">
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="21"/>
+      <c r="E69" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="25">
+      <c r="F69" s="64"/>
+      <c r="G69" s="67">
         <f>SUM(G64:G68)</f>
         <v>20480.819432829605</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H69" s="68">
         <f>G69*3600</f>
         <v>73730949.958186582</v>
       </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="28"/>
-      <c r="K71" s="27"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="D73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3374,7 +3476,7 @@
   <dimension ref="D23:K76"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,633 +3492,633 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="44">
+      <c r="E27" s="38">
         <v>6</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>0.9</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>16.36</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>F27/(H27*I27)</f>
         <v>6.7916327085031248E-3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
-      <c r="F28" s="7">
+      <c r="E28" s="39"/>
+      <c r="F28" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>0.04</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>16.36</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>F28/(H28*I28)</f>
         <v>7.6405867970660152E-2</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="46"/>
-      <c r="F29" s="7">
+      <c r="E29" s="40"/>
+      <c r="F29" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>16.36</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>8.7320991966468739E-2</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="23">
         <f>SUM(J27:J29)</f>
         <v>0.17051849264563201</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="44">
+      <c r="E31" s="38">
         <v>8</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.9</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>13.14</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>F31/(H31*I31)</f>
         <v>8.4559445290038893E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="F32" s="7">
+      <c r="E32" s="39"/>
+      <c r="F32" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.04</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>13.14</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f>F32/(H32*I32)</f>
         <v>9.5129375951293754E-2</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="46"/>
-      <c r="F33" s="7">
+      <c r="E33" s="40"/>
+      <c r="F33" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>13.14</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>0.10871928680147856</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="9">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="8">
         <f>SUM(J31:J33)</f>
         <v>0.21230460728177619</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>9</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>0.9</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>16.36</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>F35/(H35*I35)</f>
         <v>6.7916327085031248E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="F36" s="7">
+      <c r="E36" s="39"/>
+      <c r="F36" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>0.04</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>16.36</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f>F36/(H36*I36)</f>
         <v>7.6405867970660152E-2</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="46"/>
-      <c r="F37" s="7">
+      <c r="E37" s="40"/>
+      <c r="F37" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>16.36</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>8.7320991966468739E-2</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="9">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="8">
         <f>SUM(J35:J37)</f>
         <v>0.17051849264563201</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="44">
+      <c r="E39" s="38">
         <v>10</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>1.8</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>15.64</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>F39/(H39*I39)</f>
         <v>3.5521454958795111E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="45"/>
-      <c r="F40" s="7">
+      <c r="E40" s="39"/>
+      <c r="F40" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>15.64</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f>F40/(H40*I40)</f>
         <v>0.12787723785166241</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="46"/>
-      <c r="F41" s="7">
+      <c r="E41" s="40"/>
+      <c r="F41" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>1.6</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>15.64</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>1.9980818414322252E-3</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="9">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="8">
         <f>SUM(J39:J41)</f>
         <v>0.13342746518897414</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="29">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="23">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>1.2</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>15.99</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <f>F49/(H49*I49)</f>
         <v>1.5634771732332708E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="29">
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="23">
         <f>SUM(J49)</f>
         <v>1.5634771732332708E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="12"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>15</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="21"/>
-      <c r="F63" s="22" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="9">
         <f>F57-F58</f>
         <v>-5</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="19">
         <f>F64/J30</f>
         <v>-29.322332859174963</v>
       </c>
-      <c r="H64" s="50"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="9">
         <f>F56-F58</f>
         <v>15</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="19">
         <f>F65/(1/(1/J34)+(1/J46))</f>
         <v>2.520032321875747</v>
       </c>
-      <c r="H65" s="50"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <f>F56-F58</f>
         <v>15</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="19">
         <f>F66/J38</f>
         <v>87.96699857752489</v>
       </c>
-      <c r="H66" s="50"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="9">
         <f>F55-F58</f>
         <v>20</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="19">
         <f>F67/J42</f>
         <v>149.89417637271214</v>
       </c>
-      <c r="H67" s="50"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="9">
         <f>F55-F58</f>
         <v>20</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="19">
         <f>F68/J50</f>
         <v>12792</v>
       </c>
-      <c r="H68" s="50"/>
-    </row>
-    <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="52" t="s">
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="21"/>
+      <c r="E69" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="25">
+      <c r="F69" s="64"/>
+      <c r="G69" s="67">
         <f>SUM(G64:G68)</f>
         <v>13003.058874412938</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H69" s="68">
         <f>G69*3600</f>
         <v>46811011.947886579</v>
       </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="28"/>
-      <c r="K71" s="27"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="D73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4045,7 +4147,7 @@
   <dimension ref="D23:K76"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,633 +4163,633 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="44">
+      <c r="E27" s="38">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>1.8</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>19.8</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>F27/(H27*I27)</f>
         <v>2.8058361391694727E-3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
-      <c r="F28" s="7">
+      <c r="E28" s="39"/>
+      <c r="F28" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>19.8</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>F28/(H28*I28)</f>
         <v>0.10101010101010101</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="46"/>
-      <c r="F29" s="7">
+      <c r="E29" s="40"/>
+      <c r="F29" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1.6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>19.8</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.5782828282828283E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="23">
         <f>SUM(J27:J29)</f>
         <v>0.10539421997755331</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="44">
+      <c r="E31" s="38">
         <v>4</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.9</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>11.96</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>F31/(H31*I31)</f>
         <v>9.2902266815310282E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="F32" s="7">
+      <c r="E32" s="39"/>
+      <c r="F32" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.04</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>11.96</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f>F32/(H32*I32)</f>
         <v>0.10451505016722408</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="46"/>
-      <c r="F33" s="7">
+      <c r="E33" s="40"/>
+      <c r="F33" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>11.96</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>0.11944577161968464</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="9">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="8">
         <f>SUM(J31:J33)</f>
         <v>0.23325104846843975</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>5</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>0.9</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>11.96</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>F35/(H35*I35)</f>
         <v>9.2902266815310282E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="F36" s="7">
+      <c r="E36" s="39"/>
+      <c r="F36" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>0.04</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>11.96</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f>F36/(H36*I36)</f>
         <v>0.10451505016722408</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="46"/>
-      <c r="F37" s="7">
+      <c r="E37" s="40"/>
+      <c r="F37" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>11.96</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>0.11944577161968464</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="9">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="8">
         <f>SUM(J35:J37)</f>
         <v>0.23325104846843975</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="44">
+      <c r="E39" s="38">
         <v>6</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>0.9</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>17.3</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>F39/(H39*I39)</f>
         <v>6.4226075786769435E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="45"/>
-      <c r="F40" s="7">
+      <c r="E40" s="39"/>
+      <c r="F40" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>0.04</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>17.3</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f>F40/(H40*I40)</f>
         <v>7.2254335260115599E-2</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="46"/>
-      <c r="F41" s="7">
+      <c r="E41" s="40"/>
+      <c r="F41" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>17.3</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>8.2576383154417829E-2</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="9">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="8">
         <f>SUM(J39:J41)</f>
         <v>0.16125332599321035</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <f>F45/(H45*I45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="29">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="23">
         <f>SUM(J45)</f>
         <v>0.17421602787456447</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>1.2</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>17.96</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <f>F49/(H49*I49)</f>
         <v>1.3919821826280624E-3</v>
       </c>
     </row>
     <row r="50" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="29">
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="23">
         <f>SUM(J49)</f>
         <v>1.3919821826280624E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="12"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>-5</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>15</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="62" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="21"/>
-      <c r="F63" s="22" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="9">
         <f>F55-F59</f>
         <v>13</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="19">
         <f>F64/J30</f>
         <v>123.34642262895174</v>
       </c>
-      <c r="H64" s="50"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="9">
         <f>F60-F59</f>
         <v>8</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="19">
         <f>F65/J34</f>
         <v>34.297809388335708</v>
       </c>
-      <c r="H65" s="50"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <f>F57-F59</f>
         <v>-12</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="19">
         <f>F66/J38</f>
         <v>-51.446714082503561</v>
       </c>
-      <c r="H66" s="50"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="9">
         <f>F56-F59</f>
         <v>8</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="19">
         <f>F67/(1/(1/J42)+(1/J46))</f>
         <v>1.3556442264158455</v>
       </c>
-      <c r="H67" s="50"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="9">
         <f>F55-F59</f>
         <v>13</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="19">
         <f>F68/J50</f>
         <v>9339.2000000000007</v>
       </c>
-      <c r="H68" s="50"/>
-    </row>
-    <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="52" t="s">
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="21"/>
+      <c r="E69" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="25">
+      <c r="F69" s="64"/>
+      <c r="G69" s="67">
         <f>SUM(G64:G68)</f>
         <v>9446.7531621611997</v>
       </c>
-      <c r="H69" s="26">
+      <c r="H69" s="68">
         <f>G69*3600</f>
         <v>34008311.383780316</v>
       </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="28"/>
-      <c r="K71" s="27"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="D73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4715,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD473A9F-BFDF-4FDA-850D-4AC6C32BA31D}">
   <dimension ref="D23:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,713 +4834,712 @@
   <sheetData>
     <row r="23" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="44">
+      <c r="E27" s="38">
         <v>1</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>1.8</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>19.05</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>F27/(H27*I27)</f>
         <v>2.9163021289005542E-3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
-      <c r="F28" s="7">
+      <c r="E28" s="39"/>
+      <c r="F28" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>19.05</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>F28/(H28*I28)</f>
         <v>0.10498687664041995</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="46"/>
-      <c r="F29" s="7">
+      <c r="E29" s="40"/>
+      <c r="F29" s="6">
         <f>(0.2-$F27)/2</f>
         <v>0.05</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1.6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>19.05</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" ref="J29" si="0">F29/(H29*I29)</f>
         <v>1.6404199475065617E-3</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="29">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="23">
         <f>SUM(J27:J29)</f>
         <v>0.10954359871682706</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="44">
+      <c r="E31" s="38">
         <v>2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>1.8</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>6.55</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>F31/(H31*I31)</f>
         <v>8.4817642069550479E-3</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="F32" s="7">
+      <c r="E32" s="39"/>
+      <c r="F32" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>6.55</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f>F32/(H32*I32)</f>
         <v>0.30534351145038169</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="46"/>
-      <c r="F33" s="7">
+      <c r="E33" s="40"/>
+      <c r="F33" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>1.6</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>6.55</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" ref="J33" si="1">F33/(H33*I33)</f>
         <v>4.7709923664122139E-3</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="9">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="8">
         <f>SUM(J31:J33)</f>
         <v>0.31859626802374896</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>3</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>1.8</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>17.840399999999999</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>F35/(H35*I35)</f>
         <v>3.1140308264139575E-3</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="F36" s="7">
+      <c r="E36" s="39"/>
+      <c r="F36" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>17.840399999999999</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f>F36/(H36*I36)</f>
         <v>0.11210510975090245</v>
       </c>
-      <c r="K36" s="38"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="46"/>
-      <c r="F37" s="7">
+      <c r="E37" s="40"/>
+      <c r="F37" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>1.6</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>17.840399999999999</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" ref="J37" si="2">F37/(H37*I37)</f>
         <v>1.7516423398578507E-3</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="9">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="8">
         <f>SUM(J35:J37)</f>
         <v>0.11697078291717425</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="44">
+      <c r="E39" s="38">
         <v>4</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>0.1</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>0.9</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>14.05</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>F39/(H39*I39)</f>
         <v>7.9082641360221431E-3</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="45"/>
-      <c r="F40" s="7">
+      <c r="E40" s="39"/>
+      <c r="F40" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>0.04</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>14.05</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f>F40/(H40*I40)</f>
         <v>8.8967971530249101E-2</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="46"/>
-      <c r="F41" s="7">
+      <c r="E41" s="40"/>
+      <c r="F41" s="6">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>14.05</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <f t="shared" ref="J41" si="3">F41/(H41*I41)</f>
         <v>0.10167768174885612</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="9">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="8">
         <f>SUM(J39:J41)</f>
         <v>0.19855391741512735</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f>0.075</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="26">
         <v>52</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>7.5</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <f>F45/(H45*I45)</f>
         <v>1.9230769230769231E-4</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="48"/>
-      <c r="F46" s="7">
+      <c r="E46" s="42"/>
+      <c r="F46" s="6">
         <f>0.025</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="24">
         <v>0.04</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>7.5</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <f>F46/(H46*I46)</f>
         <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="29">
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="23">
         <f>SUM(J45:J46)</f>
         <v>8.3525641025641029E-2</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="35" t="s">
+      <c r="I49" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="J49" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f>0.0014</f>
         <v>1.4E-3</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="25">
         <v>0.8</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>1.08</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <f>F50/(H50*I50)</f>
         <v>1.6203703703703701E-3</v>
       </c>
     </row>
     <row r="51" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="40"/>
-      <c r="F51" s="7">
+      <c r="E51" s="34"/>
+      <c r="F51" s="6">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="26">
         <v>204</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>0.12959999999999999</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="7">
         <f>F51/(H51*I51)</f>
         <v>1.8911885741951103E-3</v>
       </c>
     </row>
     <row r="52" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="29">
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="23">
         <f>SUM(J50:J51)</f>
         <v>3.5115589445654802E-3</v>
       </c>
     </row>
     <row r="53" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="36" t="s">
+      <c r="I54" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="36" t="s">
+      <c r="J54" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>1.2</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>42.84</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <f>F55/(H55*I55)</f>
         <v>5.8356676003734826E-4</v>
       </c>
     </row>
     <row r="56" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="29">
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="23">
         <f>SUM(J55)</f>
         <v>5.8356676003734826E-4</v>
       </c>
     </row>
     <row r="59" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="12"/>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="15">
         <v>-5</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22" t="s">
+      <c r="D69" s="21"/>
+      <c r="F69" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="49" t="s">
+      <c r="H69" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="9">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="19">
         <f>F70/J30</f>
         <v>45.643926788685526</v>
       </c>
-      <c r="H70" s="50"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="H70" s="61"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="9">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="19">
         <f>F71/(1/(1/J34)+(1/J47))</f>
         <v>0.40680279327924329</v>
       </c>
-      <c r="H71" s="50"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="27"/>
+      <c r="H71" s="61"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="9">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="19">
         <f>F72/(1/(1/J38)+(1/J52))</f>
         <v>1.755058582322808E-2</v>
       </c>
-      <c r="H72" s="50"/>
-      <c r="K72" s="27"/>
+      <c r="H72" s="61"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="27"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="9">
         <f>F65-F66</f>
         <v>-8</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="19">
         <f>F73/J42</f>
         <v>-40.291322901849227</v>
       </c>
-      <c r="H73" s="50"/>
-      <c r="K73" s="27"/>
+      <c r="H73" s="61"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="9">
         <f>F61-F66</f>
         <v>5</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="19">
         <f>F74/J56</f>
         <v>8568</v>
       </c>
-      <c r="H74" s="50"/>
-      <c r="K74" s="27"/>
-    </row>
-    <row r="75" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="52" t="s">
+      <c r="H74" s="61"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="4:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="25">
+      <c r="F75" s="64"/>
+      <c r="G75" s="67">
         <f>SUM(G70:G74)</f>
         <v>8573.7769572659381</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="68">
         <f>G75*3600</f>
         <v>30865597.046157379</v>
       </c>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5463,4 +5564,114 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50795469-4B72-49CC-8D53-2AD7142A1B37}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="52">
+        <f>'Zona A'!G87</f>
+        <v>12768.230688949394</v>
+      </c>
+      <c r="C2" s="53">
+        <f>'Zona A'!H87</f>
+        <v>45965630.480217814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="52">
+        <f>'Zona B'!G69</f>
+        <v>20480.819432829605</v>
+      </c>
+      <c r="C3" s="53">
+        <f>'Zona B'!H69</f>
+        <v>73730949.958186582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="52">
+        <f>'Zona C'!G69</f>
+        <v>13003.058874412938</v>
+      </c>
+      <c r="C4" s="53">
+        <f>'Zona C'!H69</f>
+        <v>46811011.947886579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="52">
+        <f>'Zona D'!G69</f>
+        <v>9446.7531621611997</v>
+      </c>
+      <c r="C5" s="53">
+        <f>'Zona D'!H69</f>
+        <v>34008311.383780316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="54">
+        <f>'Zona E'!G75</f>
+        <v>8573.7769572659381</v>
+      </c>
+      <c r="C6" s="55">
+        <f>'Zona E'!H75</f>
+        <v>30865597.046157379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="69">
+        <f>SUM(B2:B6)</f>
+        <v>64272.639115619073</v>
+      </c>
+      <c r="C7" s="70">
+        <f>SUM(C2:C6)</f>
+        <v>231381500.81622866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>